--- a/AAII_Financials/Yearly/DIDI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DIDI_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>21824500</v>
+        <v>22190200</v>
       </c>
       <c r="E8" s="3">
-        <v>23834000</v>
+        <v>24233300</v>
       </c>
       <c r="F8" s="3">
-        <v>20831600</v>
+        <v>21180700</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>19374400</v>
+        <v>19699000</v>
       </c>
       <c r="E9" s="3">
-        <v>21505600</v>
+        <v>21865900</v>
       </c>
       <c r="F9" s="3">
-        <v>19685200</v>
+        <v>20015000</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2450100</v>
+        <v>2491200</v>
       </c>
       <c r="E10" s="3">
-        <v>2328400</v>
+        <v>2367400</v>
       </c>
       <c r="F10" s="3">
-        <v>1146500</v>
+        <v>1165700</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -806,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>972700</v>
+        <v>989000</v>
       </c>
       <c r="E12" s="3">
-        <v>823400</v>
+        <v>837200</v>
       </c>
       <c r="F12" s="3">
-        <v>674000</v>
+        <v>685300</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -860,13 +860,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>157400</v>
+        <v>160000</v>
       </c>
       <c r="E14" s="3">
-        <v>223400</v>
+        <v>227100</v>
       </c>
       <c r="F14" s="3">
-        <v>391200</v>
+        <v>397800</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24105000</v>
+        <v>24508900</v>
       </c>
       <c r="E17" s="3">
-        <v>25291300</v>
+        <v>25715000</v>
       </c>
       <c r="F17" s="3">
-        <v>23138800</v>
+        <v>23526500</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2280400</v>
+        <v>-2318700</v>
       </c>
       <c r="E18" s="3">
-        <v>-1457300</v>
+        <v>-1481700</v>
       </c>
       <c r="F18" s="3">
-        <v>-2307100</v>
+        <v>-2345800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -991,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>621400</v>
+        <v>631800</v>
       </c>
       <c r="E20" s="3">
-        <v>-84200</v>
+        <v>-85600</v>
       </c>
       <c r="F20" s="3">
-        <v>-71600</v>
+        <v>-72800</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-846400</v>
+        <v>-862500</v>
       </c>
       <c r="E21" s="3">
-        <v>-922800</v>
+        <v>-939700</v>
       </c>
       <c r="F21" s="3">
-        <v>-1949300</v>
+        <v>-1983000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1045,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21000</v>
+        <v>21300</v>
       </c>
       <c r="E22" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="F22" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1680000</v>
+        <v>-1708200</v>
       </c>
       <c r="E23" s="3">
-        <v>-1552300</v>
+        <v>-1578300</v>
       </c>
       <c r="F23" s="3">
-        <v>-2385500</v>
+        <v>-2425500</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1099,13 +1099,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-46700</v>
+        <v>-47500</v>
       </c>
       <c r="E24" s="3">
-        <v>-53600</v>
+        <v>-54500</v>
       </c>
       <c r="F24" s="3">
-        <v>-79100</v>
+        <v>-80500</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1633300</v>
+        <v>-1660700</v>
       </c>
       <c r="E26" s="3">
-        <v>-1498700</v>
+        <v>-1523800</v>
       </c>
       <c r="F26" s="3">
-        <v>-2306400</v>
+        <v>-2345000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1644600</v>
+        <v>-1672100</v>
       </c>
       <c r="E27" s="3">
-        <v>-1498000</v>
+        <v>-1523100</v>
       </c>
       <c r="F27" s="3">
-        <v>-2408600</v>
+        <v>-2448900</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1315,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-621400</v>
+        <v>-631800</v>
       </c>
       <c r="E32" s="3">
-        <v>84200</v>
+        <v>85600</v>
       </c>
       <c r="F32" s="3">
-        <v>71600</v>
+        <v>72800</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1644600</v>
+        <v>-1672100</v>
       </c>
       <c r="E33" s="3">
-        <v>-1498000</v>
+        <v>-1523100</v>
       </c>
       <c r="F33" s="3">
-        <v>-2408600</v>
+        <v>-2448900</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1644600</v>
+        <v>-1672100</v>
       </c>
       <c r="E35" s="3">
-        <v>-1498000</v>
+        <v>-1523100</v>
       </c>
       <c r="F35" s="3">
-        <v>-2408600</v>
+        <v>-2448900</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2982900</v>
+        <v>3032900</v>
       </c>
       <c r="E41" s="3">
-        <v>1969500</v>
+        <v>2002500</v>
       </c>
       <c r="F41" s="3">
-        <v>2227000</v>
+        <v>2264300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5758500</v>
+        <v>5855000</v>
       </c>
       <c r="E42" s="3">
-        <v>6368600</v>
+        <v>6475400</v>
       </c>
       <c r="F42" s="3">
-        <v>5892700</v>
+        <v>5991400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1177300</v>
+        <v>1197000</v>
       </c>
       <c r="E43" s="3">
-        <v>947400</v>
+        <v>963300</v>
       </c>
       <c r="F43" s="3">
-        <v>830200</v>
+        <v>844200</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1562,13 +1562,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>40300</v>
+        <v>40900</v>
       </c>
       <c r="E44" s="3">
-        <v>31000</v>
+        <v>31500</v>
       </c>
       <c r="F44" s="3">
-        <v>23700</v>
+        <v>24000</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>616600</v>
+        <v>626900</v>
       </c>
       <c r="E45" s="3">
-        <v>346200</v>
+        <v>352000</v>
       </c>
       <c r="F45" s="3">
-        <v>250000</v>
+        <v>254100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10575600</v>
+        <v>10752800</v>
       </c>
       <c r="E46" s="3">
-        <v>9662800</v>
+        <v>9824700</v>
       </c>
       <c r="F46" s="3">
-        <v>9223500</v>
+        <v>9378100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1643,13 +1643,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1196800</v>
+        <v>1216900</v>
       </c>
       <c r="E47" s="3">
-        <v>2103000</v>
+        <v>2138300</v>
       </c>
       <c r="F47" s="3">
-        <v>2537800</v>
+        <v>2580300</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1809400</v>
+        <v>1839700</v>
       </c>
       <c r="E48" s="3">
-        <v>1283700</v>
+        <v>1305200</v>
       </c>
       <c r="F48" s="3">
-        <v>889700</v>
+        <v>904600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8379800</v>
+        <v>8520200</v>
       </c>
       <c r="E49" s="3">
-        <v>8867600</v>
+        <v>9016200</v>
       </c>
       <c r="F49" s="3">
-        <v>9206900</v>
+        <v>9361100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1778,13 +1778,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>714300</v>
+        <v>726300</v>
       </c>
       <c r="E52" s="3">
-        <v>367000</v>
+        <v>373200</v>
       </c>
       <c r="F52" s="3">
-        <v>132300</v>
+        <v>134500</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22675900</v>
+        <v>23055900</v>
       </c>
       <c r="E54" s="3">
-        <v>22284100</v>
+        <v>22657400</v>
       </c>
       <c r="F54" s="3">
-        <v>21990200</v>
+        <v>22358600</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>719500</v>
+        <v>731500</v>
       </c>
       <c r="E57" s="3">
-        <v>627500</v>
+        <v>638000</v>
       </c>
       <c r="F57" s="3">
-        <v>593900</v>
+        <v>603800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1912,13 +1912,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1224300</v>
+        <v>1244800</v>
       </c>
       <c r="E58" s="3">
-        <v>228300</v>
+        <v>232100</v>
       </c>
       <c r="F58" s="3">
-        <v>338100</v>
+        <v>343800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2115100</v>
+        <v>2150500</v>
       </c>
       <c r="E59" s="3">
-        <v>1383900</v>
+        <v>1407100</v>
       </c>
       <c r="F59" s="3">
-        <v>952500</v>
+        <v>968500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4058900</v>
+        <v>4126900</v>
       </c>
       <c r="E60" s="3">
-        <v>2239700</v>
+        <v>2277200</v>
       </c>
       <c r="F60" s="3">
-        <v>1884500</v>
+        <v>1916100</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>223800</v>
+        <v>227500</v>
       </c>
       <c r="E61" s="3">
-        <v>117900</v>
+        <v>119900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>354600</v>
+        <v>360500</v>
       </c>
       <c r="E62" s="3">
-        <v>346700</v>
+        <v>352500</v>
       </c>
       <c r="F62" s="3">
-        <v>271400</v>
+        <v>276000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5180600</v>
+        <v>5267400</v>
       </c>
       <c r="E66" s="3">
-        <v>2731500</v>
+        <v>2777300</v>
       </c>
       <c r="F66" s="3">
-        <v>2161500</v>
+        <v>2197800</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2222,13 +2222,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>29231400</v>
+        <v>29721200</v>
       </c>
       <c r="E70" s="3">
-        <v>29232700</v>
+        <v>29722500</v>
       </c>
       <c r="F70" s="3">
-        <v>28683100</v>
+        <v>29163700</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-13303100</v>
+        <v>-13526000</v>
       </c>
       <c r="E72" s="3">
-        <v>-11661800</v>
+        <v>-11857200</v>
       </c>
       <c r="F72" s="3">
-        <v>-10133800</v>
+        <v>-10303600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-11736000</v>
+        <v>-11932700</v>
       </c>
       <c r="E76" s="3">
-        <v>-9680100</v>
+        <v>-9842300</v>
       </c>
       <c r="F76" s="3">
-        <v>-8854500</v>
+        <v>-9002800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1644600</v>
+        <v>-1672100</v>
       </c>
       <c r="E81" s="3">
-        <v>-1498000</v>
+        <v>-1523100</v>
       </c>
       <c r="F81" s="3">
-        <v>-2408600</v>
+        <v>-2448900</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>811300</v>
+        <v>824900</v>
       </c>
       <c r="E83" s="3">
-        <v>617700</v>
+        <v>628100</v>
       </c>
       <c r="F83" s="3">
-        <v>428800</v>
+        <v>436000</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>175200</v>
+        <v>178100</v>
       </c>
       <c r="E89" s="3">
-        <v>222400</v>
+        <v>226200</v>
       </c>
       <c r="F89" s="3">
-        <v>-1421000</v>
+        <v>-1444800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-892900</v>
+        <v>-907900</v>
       </c>
       <c r="E91" s="3">
-        <v>-346800</v>
+        <v>-352600</v>
       </c>
       <c r="F91" s="3">
-        <v>-844400</v>
+        <v>-858500</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-299700</v>
+        <v>-304700</v>
       </c>
       <c r="E94" s="3">
-        <v>-947100</v>
+        <v>-963000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2840800</v>
+        <v>-2888400</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1428000</v>
+        <v>1451900</v>
       </c>
       <c r="E100" s="3">
-        <v>454500</v>
+        <v>462100</v>
       </c>
       <c r="F100" s="3">
-        <v>3584200</v>
+        <v>3644200</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2968,13 +2968,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-79200</v>
+        <v>-80500</v>
       </c>
       <c r="E101" s="3">
-        <v>78700</v>
+        <v>80000</v>
       </c>
       <c r="F101" s="3">
-        <v>128400</v>
+        <v>130500</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1224300</v>
+        <v>1244800</v>
       </c>
       <c r="E102" s="3">
-        <v>-191500</v>
+        <v>-194700</v>
       </c>
       <c r="F102" s="3">
-        <v>-549300</v>
+        <v>-558500</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DIDI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DIDI_YR_FIN.xlsx
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>22190200</v>
+        <v>22360300</v>
       </c>
       <c r="E8" s="3">
-        <v>24233300</v>
+        <v>24419100</v>
       </c>
       <c r="F8" s="3">
-        <v>21180700</v>
+        <v>21343000</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>19699000</v>
+        <v>19850000</v>
       </c>
       <c r="E9" s="3">
-        <v>21865900</v>
+        <v>22033500</v>
       </c>
       <c r="F9" s="3">
-        <v>20015000</v>
+        <v>20168400</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2491200</v>
+        <v>2510300</v>
       </c>
       <c r="E10" s="3">
-        <v>2367400</v>
+        <v>2385500</v>
       </c>
       <c r="F10" s="3">
-        <v>1165700</v>
+        <v>1174600</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -806,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>989000</v>
+        <v>996500</v>
       </c>
       <c r="E12" s="3">
-        <v>837200</v>
+        <v>843600</v>
       </c>
       <c r="F12" s="3">
-        <v>685300</v>
+        <v>690600</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -860,13 +860,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>160000</v>
+        <v>161200</v>
       </c>
       <c r="E14" s="3">
-        <v>227100</v>
+        <v>228900</v>
       </c>
       <c r="F14" s="3">
-        <v>397800</v>
+        <v>400800</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24508900</v>
+        <v>24696700</v>
       </c>
       <c r="E17" s="3">
-        <v>25715000</v>
+        <v>25912100</v>
       </c>
       <c r="F17" s="3">
-        <v>23526500</v>
+        <v>23706800</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2318700</v>
+        <v>-2336400</v>
       </c>
       <c r="E18" s="3">
-        <v>-1481700</v>
+        <v>-1493100</v>
       </c>
       <c r="F18" s="3">
-        <v>-2345800</v>
+        <v>-2363800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -991,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>631800</v>
+        <v>636700</v>
       </c>
       <c r="E20" s="3">
-        <v>-85600</v>
+        <v>-86200</v>
       </c>
       <c r="F20" s="3">
-        <v>-72800</v>
+        <v>-73300</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-862500</v>
+        <v>-865700</v>
       </c>
       <c r="E21" s="3">
-        <v>-939700</v>
+        <v>-944300</v>
       </c>
       <c r="F21" s="3">
-        <v>-1983000</v>
+        <v>-1996400</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1045,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21300</v>
+        <v>21500</v>
       </c>
       <c r="E22" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="F22" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1708200</v>
+        <v>-1721300</v>
       </c>
       <c r="E23" s="3">
-        <v>-1578300</v>
+        <v>-1590400</v>
       </c>
       <c r="F23" s="3">
-        <v>-2425500</v>
+        <v>-2444100</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1099,13 +1099,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-47500</v>
+        <v>-47800</v>
       </c>
       <c r="E24" s="3">
-        <v>-54500</v>
+        <v>-54900</v>
       </c>
       <c r="F24" s="3">
-        <v>-80500</v>
+        <v>-81100</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1660700</v>
+        <v>-1673400</v>
       </c>
       <c r="E26" s="3">
-        <v>-1523800</v>
+        <v>-1535500</v>
       </c>
       <c r="F26" s="3">
-        <v>-2345000</v>
+        <v>-2363000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1672100</v>
+        <v>-1684900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1523100</v>
+        <v>-1534800</v>
       </c>
       <c r="F27" s="3">
-        <v>-2448900</v>
+        <v>-2467700</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1315,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-631800</v>
+        <v>-636700</v>
       </c>
       <c r="E32" s="3">
-        <v>85600</v>
+        <v>86200</v>
       </c>
       <c r="F32" s="3">
-        <v>72800</v>
+        <v>73300</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1672100</v>
+        <v>-1684900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1523100</v>
+        <v>-1534800</v>
       </c>
       <c r="F33" s="3">
-        <v>-2448900</v>
+        <v>-2467700</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1672100</v>
+        <v>-1684900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1523100</v>
+        <v>-1534800</v>
       </c>
       <c r="F35" s="3">
-        <v>-2448900</v>
+        <v>-2467700</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3032900</v>
+        <v>3056100</v>
       </c>
       <c r="E41" s="3">
-        <v>2002500</v>
+        <v>2017900</v>
       </c>
       <c r="F41" s="3">
-        <v>2264300</v>
+        <v>2281700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5855000</v>
+        <v>5899800</v>
       </c>
       <c r="E42" s="3">
-        <v>6475400</v>
+        <v>6525000</v>
       </c>
       <c r="F42" s="3">
-        <v>5991400</v>
+        <v>6037300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1197000</v>
+        <v>1206200</v>
       </c>
       <c r="E43" s="3">
-        <v>963300</v>
+        <v>970700</v>
       </c>
       <c r="F43" s="3">
-        <v>844200</v>
+        <v>850600</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1562,13 +1562,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>40900</v>
+        <v>41300</v>
       </c>
       <c r="E44" s="3">
-        <v>31500</v>
+        <v>31700</v>
       </c>
       <c r="F44" s="3">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>626900</v>
+        <v>631700</v>
       </c>
       <c r="E45" s="3">
-        <v>352000</v>
+        <v>354700</v>
       </c>
       <c r="F45" s="3">
-        <v>254100</v>
+        <v>256100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10752800</v>
+        <v>10835200</v>
       </c>
       <c r="E46" s="3">
-        <v>9824700</v>
+        <v>9900000</v>
       </c>
       <c r="F46" s="3">
-        <v>9378100</v>
+        <v>9449900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1643,13 +1643,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1216900</v>
+        <v>1226200</v>
       </c>
       <c r="E47" s="3">
-        <v>2138300</v>
+        <v>2154600</v>
       </c>
       <c r="F47" s="3">
-        <v>2580300</v>
+        <v>2600100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1839700</v>
+        <v>1853800</v>
       </c>
       <c r="E48" s="3">
-        <v>1305200</v>
+        <v>1315200</v>
       </c>
       <c r="F48" s="3">
-        <v>904600</v>
+        <v>911600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8520200</v>
+        <v>8585500</v>
       </c>
       <c r="E49" s="3">
-        <v>9016200</v>
+        <v>9085300</v>
       </c>
       <c r="F49" s="3">
-        <v>9361100</v>
+        <v>9432900</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1778,13 +1778,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>726300</v>
+        <v>731900</v>
       </c>
       <c r="E52" s="3">
-        <v>373200</v>
+        <v>376000</v>
       </c>
       <c r="F52" s="3">
-        <v>134500</v>
+        <v>135500</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23055900</v>
+        <v>23232600</v>
       </c>
       <c r="E54" s="3">
-        <v>22657400</v>
+        <v>22831100</v>
       </c>
       <c r="F54" s="3">
-        <v>22358600</v>
+        <v>22530000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>731500</v>
+        <v>737200</v>
       </c>
       <c r="E57" s="3">
-        <v>638000</v>
+        <v>642900</v>
       </c>
       <c r="F57" s="3">
-        <v>603800</v>
+        <v>608500</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1912,13 +1912,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1244800</v>
+        <v>1254300</v>
       </c>
       <c r="E58" s="3">
-        <v>232100</v>
+        <v>233900</v>
       </c>
       <c r="F58" s="3">
-        <v>343800</v>
+        <v>346400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2150500</v>
+        <v>2167000</v>
       </c>
       <c r="E59" s="3">
-        <v>1407100</v>
+        <v>1417900</v>
       </c>
       <c r="F59" s="3">
-        <v>968500</v>
+        <v>975900</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4126900</v>
+        <v>4158500</v>
       </c>
       <c r="E60" s="3">
-        <v>2277200</v>
+        <v>2294700</v>
       </c>
       <c r="F60" s="3">
-        <v>1916100</v>
+        <v>1930800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>227500</v>
+        <v>229300</v>
       </c>
       <c r="E61" s="3">
-        <v>119900</v>
+        <v>120800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>360500</v>
+        <v>363300</v>
       </c>
       <c r="E62" s="3">
-        <v>352500</v>
+        <v>355200</v>
       </c>
       <c r="F62" s="3">
-        <v>276000</v>
+        <v>278100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5267400</v>
+        <v>5307700</v>
       </c>
       <c r="E66" s="3">
-        <v>2777300</v>
+        <v>2798600</v>
       </c>
       <c r="F66" s="3">
-        <v>2197800</v>
+        <v>2214600</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2222,13 +2222,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>29721200</v>
+        <v>29949000</v>
       </c>
       <c r="E70" s="3">
-        <v>29722500</v>
+        <v>29950300</v>
       </c>
       <c r="F70" s="3">
-        <v>29163700</v>
+        <v>29387200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-13526000</v>
+        <v>-13629600</v>
       </c>
       <c r="E72" s="3">
-        <v>-11857200</v>
+        <v>-11948000</v>
       </c>
       <c r="F72" s="3">
-        <v>-10303600</v>
+        <v>-10382600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-11932700</v>
+        <v>-12024200</v>
       </c>
       <c r="E76" s="3">
-        <v>-9842300</v>
+        <v>-9917700</v>
       </c>
       <c r="F76" s="3">
-        <v>-9002800</v>
+        <v>-9071800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1672100</v>
+        <v>-1684900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1523100</v>
+        <v>-1534800</v>
       </c>
       <c r="F81" s="3">
-        <v>-2448900</v>
+        <v>-2467700</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>824900</v>
+        <v>831300</v>
       </c>
       <c r="E83" s="3">
-        <v>628100</v>
+        <v>632900</v>
       </c>
       <c r="F83" s="3">
-        <v>436000</v>
+        <v>439300</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>178100</v>
+        <v>179500</v>
       </c>
       <c r="E89" s="3">
-        <v>226200</v>
+        <v>227900</v>
       </c>
       <c r="F89" s="3">
-        <v>-1444800</v>
+        <v>-1455900</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-907900</v>
+        <v>-914900</v>
       </c>
       <c r="E91" s="3">
-        <v>-352600</v>
+        <v>-355400</v>
       </c>
       <c r="F91" s="3">
-        <v>-858500</v>
+        <v>-865100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-304700</v>
+        <v>-307100</v>
       </c>
       <c r="E94" s="3">
-        <v>-963000</v>
+        <v>-970300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2888400</v>
+        <v>-2910600</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1451900</v>
+        <v>1463100</v>
       </c>
       <c r="E100" s="3">
-        <v>462100</v>
+        <v>465700</v>
       </c>
       <c r="F100" s="3">
-        <v>3644200</v>
+        <v>3672200</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2968,13 +2968,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-80500</v>
+        <v>-81200</v>
       </c>
       <c r="E101" s="3">
-        <v>80000</v>
+        <v>80600</v>
       </c>
       <c r="F101" s="3">
-        <v>130500</v>
+        <v>131500</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1244800</v>
+        <v>1254300</v>
       </c>
       <c r="E102" s="3">
-        <v>-194700</v>
+        <v>-196200</v>
       </c>
       <c r="F102" s="3">
-        <v>-558500</v>
+        <v>-562800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DIDI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DIDI_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,36 +666,37 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,23 +706,26 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>22360300</v>
+        <v>25615200</v>
       </c>
       <c r="E8" s="3">
-        <v>24419100</v>
+        <v>20886200</v>
       </c>
       <c r="F8" s="3">
-        <v>21343000</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>22809300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>19936000</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,23 +736,26 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>19850000</v>
+        <v>23115400</v>
       </c>
       <c r="E9" s="3">
-        <v>22033500</v>
+        <v>18541400</v>
       </c>
       <c r="F9" s="3">
-        <v>20168400</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>20581000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>18838900</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -759,23 +766,26 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2510300</v>
+        <v>2499800</v>
       </c>
       <c r="E10" s="3">
-        <v>2385500</v>
+        <v>2344800</v>
       </c>
       <c r="F10" s="3">
-        <v>1174600</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>2228300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1097200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -786,9 +796,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,22 +813,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>996500</v>
+        <v>1387300</v>
       </c>
       <c r="E12" s="3">
-        <v>843600</v>
+        <v>930800</v>
       </c>
       <c r="F12" s="3">
-        <v>690600</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>788000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>645100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -826,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,23 +870,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>161200</v>
+        <v>411000</v>
       </c>
       <c r="E14" s="3">
-        <v>228900</v>
+        <v>150600</v>
       </c>
       <c r="F14" s="3">
-        <v>400800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>213800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>374400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -880,9 +900,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +930,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,22 +944,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24696700</v>
+        <v>32753600</v>
       </c>
       <c r="E17" s="3">
-        <v>25912100</v>
+        <v>23068600</v>
       </c>
       <c r="F17" s="3">
-        <v>23706800</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>24203900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>22144000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,23 +971,26 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2336400</v>
+        <v>-7138400</v>
       </c>
       <c r="E18" s="3">
-        <v>-1493100</v>
+        <v>-2182400</v>
       </c>
       <c r="F18" s="3">
-        <v>-2363800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-1394600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-2208000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1001,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,22 +1018,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>636700</v>
+        <v>-66200</v>
       </c>
       <c r="E20" s="3">
-        <v>-86200</v>
+        <v>594700</v>
       </c>
       <c r="F20" s="3">
-        <v>-73300</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>-80500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-68500</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1011,23 +1045,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-865700</v>
+        <v>-6304700</v>
       </c>
       <c r="E21" s="3">
-        <v>-944300</v>
+        <v>-803500</v>
       </c>
       <c r="F21" s="3">
-        <v>-1996400</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-878100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1862000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,23 +1075,26 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21500</v>
+        <v>40900</v>
       </c>
       <c r="E22" s="3">
-        <v>11100</v>
+        <v>20100</v>
       </c>
       <c r="F22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>10400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6500</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1065,23 +1105,26 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1721300</v>
+        <v>-7245400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1590400</v>
+        <v>-1607800</v>
       </c>
       <c r="F23" s="3">
-        <v>-2444100</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-1485500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-2283000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,23 +1135,26 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-47800</v>
+        <v>24500</v>
       </c>
       <c r="E24" s="3">
-        <v>-54900</v>
+        <v>-44700</v>
       </c>
       <c r="F24" s="3">
-        <v>-81100</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>-51300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-75700</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1165,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,23 +1195,26 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1673400</v>
+        <v>-7269900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1535500</v>
+        <v>-1563100</v>
       </c>
       <c r="F26" s="3">
-        <v>-2363000</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-1434300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-2207200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1173,23 +1225,26 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1684900</v>
+        <v>-7372600</v>
       </c>
       <c r="E27" s="3">
-        <v>-1534800</v>
+        <v>-1573900</v>
       </c>
       <c r="F27" s="3">
-        <v>-2467700</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-1433600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-2305000</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1255,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1285,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1315,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,23 +1375,26 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-636700</v>
+        <v>66200</v>
       </c>
       <c r="E32" s="3">
-        <v>86200</v>
+        <v>-594700</v>
       </c>
       <c r="F32" s="3">
-        <v>73300</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>80500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>68500</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1335,23 +1405,26 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1684900</v>
+        <v>-7372600</v>
       </c>
       <c r="E33" s="3">
-        <v>-1534800</v>
+        <v>-1573900</v>
       </c>
       <c r="F33" s="3">
-        <v>-2467700</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-1433600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-2305000</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1435,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,23 +1465,26 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1684900</v>
+        <v>-7372600</v>
       </c>
       <c r="E35" s="3">
-        <v>-1534800</v>
+        <v>-1573900</v>
       </c>
       <c r="F35" s="3">
-        <v>-2467700</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-1433600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-2305000</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1416,29 +1495,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1530,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,22 +1561,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3056100</v>
+        <v>6399800</v>
       </c>
       <c r="E41" s="3">
-        <v>2017900</v>
+        <v>2854700</v>
       </c>
       <c r="F41" s="3">
-        <v>2281700</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>1884900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2131300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,23 +1588,26 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5899800</v>
+        <v>1966300</v>
       </c>
       <c r="E42" s="3">
-        <v>6525000</v>
+        <v>5553800</v>
       </c>
       <c r="F42" s="3">
-        <v>6037300</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>6094800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5639300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1528,23 +1618,26 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1206200</v>
+        <v>1356000</v>
       </c>
       <c r="E43" s="3">
-        <v>970700</v>
+        <v>1089800</v>
       </c>
       <c r="F43" s="3">
-        <v>850600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>906700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>794600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,23 +1648,26 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>41300</v>
+        <v>29200</v>
       </c>
       <c r="E44" s="3">
-        <v>31700</v>
+        <v>38500</v>
       </c>
       <c r="F44" s="3">
-        <v>24200</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>29700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>22600</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1582,23 +1678,26 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>631700</v>
+        <v>382100</v>
       </c>
       <c r="E45" s="3">
-        <v>354700</v>
+        <v>762300</v>
       </c>
       <c r="F45" s="3">
-        <v>256100</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>331300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>239200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1609,23 +1708,26 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10835200</v>
+        <v>10133300</v>
       </c>
       <c r="E46" s="3">
-        <v>9900000</v>
+        <v>10113400</v>
       </c>
       <c r="F46" s="3">
-        <v>9449900</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>9247400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>8827000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1636,23 +1738,26 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1226200</v>
+        <v>3432100</v>
       </c>
       <c r="E47" s="3">
-        <v>2154600</v>
+        <v>1688800</v>
       </c>
       <c r="F47" s="3">
-        <v>2600100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>2012600</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2428700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1663,23 +1768,26 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1853800</v>
+        <v>1368600</v>
       </c>
       <c r="E48" s="3">
-        <v>1315200</v>
+        <v>1722800</v>
       </c>
       <c r="F48" s="3">
-        <v>911600</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>1228500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>851500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1690,23 +1798,26 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8585500</v>
+        <v>7318400</v>
       </c>
       <c r="E49" s="3">
-        <v>9085300</v>
+        <v>8028400</v>
       </c>
       <c r="F49" s="3">
-        <v>9432900</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>8486400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>8811100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1828,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,23 +1888,26 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>731900</v>
+        <v>293200</v>
       </c>
       <c r="E52" s="3">
-        <v>376000</v>
+        <v>147700</v>
       </c>
       <c r="F52" s="3">
-        <v>135500</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>351200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>126600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1918,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1948,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23232600</v>
+        <v>22545800</v>
       </c>
       <c r="E54" s="3">
-        <v>22831100</v>
+        <v>21701000</v>
       </c>
       <c r="F54" s="3">
-        <v>22530000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>21326000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>21044800</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1978,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,22 +2009,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>737200</v>
+        <v>706700</v>
       </c>
       <c r="E57" s="3">
-        <v>642900</v>
+        <v>905300</v>
       </c>
       <c r="F57" s="3">
-        <v>608500</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>600500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>568400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1905,23 +2036,26 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1254300</v>
+        <v>1114000</v>
       </c>
       <c r="E58" s="3">
-        <v>233900</v>
+        <v>1171600</v>
       </c>
       <c r="F58" s="3">
-        <v>346400</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>218500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>323600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1932,23 +2066,26 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2167000</v>
+        <v>1778300</v>
       </c>
       <c r="E59" s="3">
-        <v>1417900</v>
+        <v>3238400</v>
       </c>
       <c r="F59" s="3">
-        <v>975900</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>1324400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>911600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1959,23 +2096,26 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4158500</v>
+        <v>3598900</v>
       </c>
       <c r="E60" s="3">
-        <v>2294700</v>
+        <v>3884400</v>
       </c>
       <c r="F60" s="3">
-        <v>1930800</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>2143400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1803500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1986,20 +2126,23 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>229300</v>
+        <v>247800</v>
       </c>
       <c r="E61" s="3">
-        <v>120800</v>
+        <v>214100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>112800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2013,23 +2156,26 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>363300</v>
+        <v>213300</v>
       </c>
       <c r="E62" s="3">
-        <v>355200</v>
+        <v>339400</v>
       </c>
       <c r="F62" s="3">
-        <v>278100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>331800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>259800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2186,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2276,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5307700</v>
+        <v>6034600</v>
       </c>
       <c r="E66" s="3">
-        <v>2798600</v>
+        <v>4957800</v>
       </c>
       <c r="F66" s="3">
-        <v>2214600</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>2614100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2068600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2306,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,23 +2380,26 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>29949000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>29950300</v>
+        <v>27974700</v>
       </c>
       <c r="F70" s="3">
-        <v>29387200</v>
+        <v>27975900</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>27449900</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2242,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,23 +2440,26 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-13629600</v>
+        <v>-20002400</v>
       </c>
       <c r="E72" s="3">
-        <v>-11948000</v>
+        <v>-12731100</v>
       </c>
       <c r="F72" s="3">
-        <v>-10382600</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-11160400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-9698100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2470,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,23 +2560,26 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-12024200</v>
+        <v>16511200</v>
       </c>
       <c r="E76" s="3">
-        <v>-9917700</v>
+        <v>-11231500</v>
       </c>
       <c r="F76" s="3">
-        <v>-9071800</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-9263900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-8473700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2590,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2620,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,23 +2655,26 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1684900</v>
+        <v>-7372600</v>
       </c>
       <c r="E81" s="3">
-        <v>-1534800</v>
+        <v>-1573900</v>
       </c>
       <c r="F81" s="3">
-        <v>-2467700</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-1433600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-2305000</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2685,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,22 +2702,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>831300</v>
+        <v>890800</v>
       </c>
       <c r="E83" s="3">
-        <v>632900</v>
+        <v>776500</v>
       </c>
       <c r="F83" s="3">
-        <v>439300</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>591200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>410300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2729,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2879,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>179500</v>
+        <v>-1976700</v>
       </c>
       <c r="E89" s="3">
-        <v>227900</v>
+        <v>167600</v>
       </c>
       <c r="F89" s="3">
-        <v>-1455900</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>212900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-1359900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2909,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,22 +2926,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-914900</v>
+        <v>-975600</v>
       </c>
       <c r="E91" s="3">
-        <v>-355400</v>
+        <v>-854600</v>
       </c>
       <c r="F91" s="3">
-        <v>-865100</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-331900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-808100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2953,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3013,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-307100</v>
+        <v>168700</v>
       </c>
       <c r="E94" s="3">
-        <v>-970300</v>
+        <v>-286800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2910600</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-906400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-2718700</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3043,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3060,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3087,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3177,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1463100</v>
+        <v>5185800</v>
       </c>
       <c r="E100" s="3">
-        <v>465700</v>
+        <v>1366600</v>
       </c>
       <c r="F100" s="3">
-        <v>3672200</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>435000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>3430100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,23 +3207,26 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-81200</v>
+        <v>-84300</v>
       </c>
       <c r="E101" s="3">
-        <v>80600</v>
+        <v>-75800</v>
       </c>
       <c r="F101" s="3">
-        <v>131500</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+        <v>75300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>122900</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -2988,23 +3237,26 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1254300</v>
+        <v>3293500</v>
       </c>
       <c r="E102" s="3">
-        <v>-196200</v>
+        <v>1171600</v>
       </c>
       <c r="F102" s="3">
-        <v>-562800</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>-183200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-525700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3267,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
